--- a/biology/Botanique/Piper_arboreum/Piper_arboreum.xlsx
+++ b/biology/Botanique/Piper_arboreum/Piper_arboreum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Piper arboreum est un arbrisseau néotropical, appartenant à la famille des Piperaceae, et décrit par Aublet en 1775[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Piper arboreum est un arbrisseau néotropical, appartenant à la famille des Piperaceae, et décrit par Aublet en 1775. 
 Il est connu au Pérou sous les noms de Mocco Mocco, Matico (espagnol).
 			Rameau feuillé de Piper arboreum (cultivé au jardin botanique de Cracovie
 			Tige de Piper arboreum à "los jardines de Mandor" (Pérou)
